--- a/Backend/templates/vaccume.xlsx
+++ b/Backend/templates/vaccume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\react projects\nokia\git\Nokia-API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\react projects\nokia\Nokia-DWS-main\Backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110CCFB5-1409-4DE8-8AD3-88EEF48229F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F248BEF4-9D78-40FA-BCEF-01492FF1EBCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Vacuum Lifter-Bi-Monthly Maintenance</t>
   </si>
@@ -66,48 +66,12 @@
     <t>Change History</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>machine_Sl_No</t>
-  </si>
-  <si>
-    <t>process1_result</t>
-  </si>
-  <si>
-    <t>process2_result</t>
-  </si>
-  <si>
-    <t>process3_result</t>
-  </si>
-  <si>
-    <t>process4_result</t>
-  </si>
-  <si>
-    <t>process5_result</t>
-  </si>
-  <si>
     <t>process6_result</t>
   </si>
   <si>
-    <t>process7_result</t>
-  </si>
-  <si>
-    <t>process8_result</t>
-  </si>
-  <si>
-    <t>process9_result</t>
-  </si>
-  <si>
     <t>checked_by</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>For Internal Use</t>
   </si>
   <si>
@@ -118,6 +82,45 @@
   </si>
   <si>
     <t>This material, including documentation and any related computer programs, is protected by copyright controlled by Nokia Solutions and Networks. All rights are reserved. Copying, including reproducing, storing, adapting or translating, any or all of this material requires the prior written consent of  Nokia Solutions and Networks. This material also contains confidential information, which may not  be disclosed to others without the prior written consent of Nokia Solutions and Networks.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Machine Sl No</t>
+  </si>
+  <si>
+    <t>process1 Result</t>
+  </si>
+  <si>
+    <t>Process2 Result</t>
+  </si>
+  <si>
+    <t>Process3 Result</t>
+  </si>
+  <si>
+    <t>Process4 Result</t>
+  </si>
+  <si>
+    <t>Process5 Result</t>
+  </si>
+  <si>
+    <t>Process7 Result</t>
+  </si>
+  <si>
+    <t>Process8 Result</t>
+  </si>
+  <si>
+    <t>Process9 Result</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -173,35 +176,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,59 +653,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -588,17 +714,17 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="L10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -607,15 +733,15 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -624,15 +750,15 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -641,15 +767,15 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -658,15 +784,15 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -675,95 +801,110 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="L20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="L10:T15"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="A7:E8"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="N19:N20"/>
   </mergeCells>
+  <conditionalFormatting sqref="A21:N1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{37FAF1AC-5547-4C8B-B53B-377EACF0DB70}"/>
   </hyperlinks>
